--- a/metadata_pipeline/metadata_documents/metadata_library.xlsx
+++ b/metadata_pipeline/metadata_documents/metadata_library.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hello\Desktop\metric_stream\v0.022\metadata_pipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hello\Desktop\metric_stream\v0.022\metadata_pipeline\metadata_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16D999-3567-4D22-95BA-0F6F517CAB3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0621F-5D8C-409E-85DD-54E63FE8BED2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28650" windowHeight="16335" xr2:uid="{E5B41E3F-6059-40D3-8EE6-F2B9FB80ED8B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="211">
   <si>
     <t>Billing Address</t>
   </si>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77734CB9-89DF-4E79-84E5-84AC0BEEB545}">
   <dimension ref="A1:G1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>156</v>
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>115</v>
@@ -1375,10 +1375,12 @@
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="C11" s="19" t="s">
         <v>81</v>
       </c>
@@ -1479,12 +1481,10 @@
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="23" t="s">
         <v>170</v>
       </c>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>146</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>28</v>
@@ -1542,11 +1542,11 @@
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
+      <c r="A20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>10</v>
@@ -1563,11 +1563,11 @@
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>141</v>
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>13</v>
@@ -1582,11 +1582,11 @@
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>145</v>
+      <c r="A22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>0</v>
@@ -1603,11 +1603,11 @@
       <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>144</v>
+      <c r="B23" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>14</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>15</v>
@@ -1666,11 +1666,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
+      <c r="A26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>118</v>
@@ -1689,11 +1689,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>158</v>
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>18</v>
@@ -1710,11 +1710,11 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>156</v>
+      <c r="B28" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>85</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>88</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>96</v>
@@ -1775,10 +1775,12 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="C31" s="19" t="s">
         <v>30</v>
       </c>
@@ -1794,12 +1796,10 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="20" t="s">
         <v>55</v>
       </c>
@@ -1891,11 +1891,11 @@
       <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>143</v>
+      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>205</v>
@@ -1910,11 +1910,11 @@
       <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>140</v>
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>4</v>
@@ -1931,10 +1931,10 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -1969,11 +1969,11 @@
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>146</v>
+      <c r="A41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>32</v>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>6</v>
@@ -2011,11 +2011,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>58</v>
@@ -2034,11 +2034,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>152</v>
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>61</v>
@@ -2057,11 +2057,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>151</v>
+      <c r="A45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>120</v>
@@ -2078,11 +2078,11 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>35</v>
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>34</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>151</v>
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>121</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>63</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>36</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="50" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>39</v>
@@ -2185,11 +2185,11 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>100</v>
@@ -2206,7 +2206,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2230,10 +2230,10 @@
     </row>
     <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>160</v>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="54" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>143</v>
+        <v>56</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>66</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="55" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>161</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>157</v>
+        <v>82</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>90</v>
@@ -2318,9 +2318,11 @@
     </row>
     <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="C57" s="19" t="s">
         <v>69</v>
       </c>
@@ -2337,11 +2339,9 @@
     </row>
     <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B58" s="6"/>
       <c r="C58" s="19" t="s">
         <v>93</v>
       </c>
@@ -2358,9 +2358,11 @@
     </row>
     <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="C59" s="19" t="s">
         <v>72</v>
       </c>
@@ -2378,10 +2380,10 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="19" t="s">
         <v>41</v>
       </c>
@@ -2397,12 +2399,10 @@
       <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="A61" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="15"/>
       <c r="C61" s="23" t="s">
         <v>202</v>
       </c>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>95</v>
@@ -2439,11 +2439,11 @@
       <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>56</v>
+      <c r="A63" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>43</v>
@@ -2460,10 +2460,10 @@
       <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C64" s="20" t="s">
@@ -2481,11 +2481,11 @@
       <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>75</v>
+      <c r="A65" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>198</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="66" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>46</v>
@@ -2523,11 +2523,11 @@
       <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>56</v>
+      <c r="A67" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>104</v>
@@ -2546,11 +2546,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>155</v>
+      <c r="A68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>77</v>
@@ -2572,8 +2572,8 @@
       <c r="A69" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>151</v>
+      <c r="B69" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>124</v>
@@ -2590,10 +2590,10 @@
       <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C70" s="19" t="s">
@@ -2611,10 +2611,10 @@
       <c r="G70" s="20"/>
     </row>
     <row r="71" spans="1:7" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C71" s="23" t="s">
@@ -2633,10 +2633,10 @@
     </row>
     <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>48</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>126</v>
@@ -2677,9 +2677,11 @@
     </row>
     <row r="74" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C74" s="19" t="s">
         <v>154</v>
       </c>
@@ -2694,11 +2696,9 @@
     </row>
     <row r="75" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>151</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B75" s="6"/>
       <c r="C75" s="19" t="s">
         <v>127</v>
       </c>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="76" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>51</v>
@@ -2741,7 +2741,7 @@
         <v>109</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>130</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>151</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>134</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>52</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>106</v>
@@ -2850,11 +2850,11 @@
       <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>147</v>
+      <c r="A82" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>21</v>
@@ -2871,8 +2871,12 @@
       <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="C83" s="26" t="s">
         <v>23</v>
       </c>
@@ -11333,7 +11337,7 @@
   <dimension ref="A1:G1022"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
